--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,10 +265,13 @@
     <t xml:space="preserve">Fan</t>
   </si>
   <si>
+    <t xml:space="preserve">5V</t>
+  </si>
+  <si>
     <t xml:space="preserve">40X40X20</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.reichelt.de/FAN-4020-12V/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=11005&amp;artnr=FAN-4020+12V&amp;SEARCH=fan</t>
+    <t xml:space="preserve">https://www.conrad.de/de/axialluefter-5-vdc-1189-mh-l-x-b-x-h-40-x-40-x-10-mm-sunon-mb40100v2-0000-a99-183719.html</t>
   </si>
   <si>
     <t xml:space="preserve">100V</t>
@@ -437,7 +440,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>http://www.roithner-laser.com/led_highsingle_hexagonal.html</t>
+      <t xml:space="preserve">http://www.roithner-laser.com/led_highsingle_hexagonal.html</t>
     </r>
     <r>
       <rPr>
@@ -445,7 +448,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> But maybe this would work? </t>
+      <t xml:space="preserve"> But maybe this would work? </t>
     </r>
     <r>
       <rPr>
@@ -454,7 +457,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>http://www.reichelt.de/SMD-LEDs-Standard/2/index.html?&amp;ACTION=2&amp;LA=2&amp;GROUP=A5381&amp;GROUPID=3035&amp;START=0&amp;OFFSET=500&amp;SHOW=1</t>
+      <t xml:space="preserve">http://www.reichelt.de/SMD-LEDs-Standard/2/index.html?&amp;ACTION=2&amp;LA=2&amp;GROUP=A5381&amp;GROUPID=3035&amp;START=0&amp;OFFSET=500&amp;SHOW=1</t>
     </r>
   </si>
   <si>
@@ -479,7 +482,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> or maybe this would work </t>
+      <t xml:space="preserve"> or maybe this would work </t>
     </r>
     <r>
       <rPr>
@@ -488,7 +491,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>https://www.reichelt.de/11-Watt-axial/11W-AXIAL-12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12</t>
+      <t xml:space="preserve">https://www.reichelt.de/11-Watt-axial/11W-AXIAL-12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12</t>
     </r>
   </si>
   <si>
@@ -523,9 +526,6 @@
   </si>
   <si>
     <t xml:space="preserve">Servo motor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V</t>
   </si>
   <si>
     <t xml:space="preserve">cont. rotation</t>
@@ -619,8 +619,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -711,12 +712,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -743,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -781,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -801,11 +814,11 @@
         <f aca="false">E3*F3</f>
         <v>0.47</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -828,11 +841,11 @@
         <f aca="false">E4*F4</f>
         <v>18.65</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -846,11 +859,11 @@
         <f aca="false">E5*F5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
@@ -864,11 +877,11 @@
         <f aca="false">E6*F6</f>
         <v>5</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
@@ -891,7 +904,7 @@
         <f aca="false">E7*F7</f>
         <v>1.99</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -900,7 +913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>26</v>
       </c>
@@ -923,11 +936,11 @@
         <f aca="false">E10*F10</f>
         <v>0.43</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>26</v>
       </c>
@@ -950,11 +963,11 @@
         <f aca="false">E11*F11</f>
         <v>0.08</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>33</v>
       </c>
@@ -977,11 +990,11 @@
         <f aca="false">E12*F12</f>
         <v>0.18</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>37</v>
       </c>
@@ -1004,11 +1017,11 @@
         <f aca="false">E13*F13</f>
         <v>0.6</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>42</v>
       </c>
@@ -1028,11 +1041,11 @@
         <f aca="false">E14*F14</f>
         <v>0.24</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>46</v>
       </c>
@@ -1055,11 +1068,11 @@
         <f aca="false">E15*F15</f>
         <v>3.8</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>50</v>
       </c>
@@ -1076,11 +1089,11 @@
         <f aca="false">E16*F16</f>
         <v>37.5</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>53</v>
       </c>
@@ -1097,11 +1110,11 @@
         <f aca="false">E17*F17</f>
         <v>1.55</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>56</v>
       </c>
@@ -1118,11 +1131,11 @@
         <f aca="false">E18*F18</f>
         <v>1.5</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>59</v>
       </c>
@@ -1145,16 +1158,20 @@
         <f aca="false">E19*F19</f>
         <v>0.2</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>65</v>
       </c>
@@ -1171,11 +1188,11 @@
         <f aca="false">E22*F22</f>
         <v>22.9</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>68</v>
       </c>
@@ -1198,11 +1215,11 @@
         <f aca="false">E23*F23</f>
         <v>0.54</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>56</v>
       </c>
@@ -1222,16 +1239,20 @@
         <f aca="false">E24*F24</f>
         <v>1.95</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="4" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>77</v>
       </c>
@@ -1248,43 +1269,43 @@
         <f aca="false">E27*F27</f>
         <v>2.4</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1.99</v>
+        <v>7.5</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">E28*F28</f>
-        <v>1.99</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7.5</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>29</v>
@@ -1299,22 +1320,22 @@
         <f aca="false">E29*F29</f>
         <v>0.08</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1</v>
@@ -1326,22 +1347,22 @@
         <f aca="false">E30*F30</f>
         <v>0.58</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>3</v>
@@ -1353,22 +1374,22 @@
         <f aca="false">E31*F31</f>
         <v>0.33</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
@@ -1380,22 +1401,22 @@
         <f aca="false">E32*F32</f>
         <v>0.97</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1</v>
@@ -1407,22 +1428,22 @@
         <f aca="false">E33*F33</f>
         <v>0.11</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1</v>
@@ -1434,22 +1455,22 @@
         <f aca="false">E34*F34</f>
         <v>0.11</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>1</v>
@@ -1461,22 +1482,22 @@
         <f aca="false">E35*F35</f>
         <v>0.08</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>1</v>
@@ -1488,11 +1509,11 @@
         <f aca="false">E36*F36</f>
         <v>17.1</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>42</v>
       </c>
@@ -1512,16 +1533,16 @@
         <f aca="false">E37*F37</f>
         <v>0.96</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>2</v>
@@ -1533,19 +1554,19 @@
         <f aca="false">E38*F38</f>
         <v>2.3</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1</v>
@@ -1557,16 +1578,20 @@
         <f aca="false">E39*F39</f>
         <v>3.4</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>119</v>
-      </c>
+      <c r="H39" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>26</v>
       </c>
@@ -1589,11 +1614,11 @@
         <f aca="false">E42*F42</f>
         <v>0.43</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>26</v>
       </c>
@@ -1616,11 +1641,11 @@
         <f aca="false">E43*F43</f>
         <v>0.08</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>33</v>
       </c>
@@ -1643,11 +1668,11 @@
         <f aca="false">E44*F44</f>
         <v>0.18</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>37</v>
       </c>
@@ -1670,11 +1695,11 @@
         <f aca="false">E45*F45</f>
         <v>0.6</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>46</v>
       </c>
@@ -1697,16 +1722,16 @@
         <f aca="false">E46*F46</f>
         <v>3.8</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>44</v>
@@ -1721,11 +1746,11 @@
         <f aca="false">E47*F47</f>
         <v>0.36</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>42</v>
       </c>
@@ -1745,16 +1770,16 @@
         <f aca="false">E48*F48</f>
         <v>0.24</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
@@ -1766,22 +1791,22 @@
         <f aca="false">E49*F49</f>
         <v>6.71</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
@@ -1793,16 +1818,20 @@
         <f aca="false">E50*F50</f>
         <v>10.7</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>130</v>
-      </c>
+      <c r="H50" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>26</v>
       </c>
@@ -1825,11 +1854,11 @@
         <f aca="false">E53*F53</f>
         <v>0.43</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="H53" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>26</v>
       </c>
@@ -1852,11 +1881,11 @@
         <f aca="false">E54*F54</f>
         <v>0.08</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="H54" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>33</v>
       </c>
@@ -1879,11 +1908,11 @@
         <f aca="false">E55*F55</f>
         <v>0.18</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>37</v>
       </c>
@@ -1906,11 +1935,11 @@
         <f aca="false">E56*F56</f>
         <v>0.6</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="H56" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>46</v>
       </c>
@@ -1933,22 +1962,22 @@
         <f aca="false">E57*F57</f>
         <v>3.8</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="H57" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
@@ -1960,22 +1989,22 @@
         <f aca="false">E58*F58</f>
         <v>0.11</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>3</v>
@@ -1987,22 +2016,22 @@
         <f aca="false">E59*F59</f>
         <v>0.24</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>108</v>
+      <c r="H59" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1</v>
@@ -2014,22 +2043,22 @@
         <f aca="false">E60*F60</f>
         <v>8.79</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>136</v>
+      <c r="H60" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1</v>
@@ -2041,25 +2070,25 @@
         <f aca="false">E61*F61</f>
         <v>0.65</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>141</v>
+      <c r="H61" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>143</v>
+      <c r="A62" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
@@ -2071,16 +2100,16 @@
         <f aca="false">E62*F62</f>
         <v>2.33</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1</v>
@@ -2092,16 +2121,16 @@
         <f aca="false">E63*F63</f>
         <v>1.15</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H63" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
@@ -2113,16 +2142,16 @@
         <f aca="false">E64*F64</f>
         <v>10.2</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H64" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1</v>
@@ -2134,16 +2163,16 @@
         <f aca="false">E65*F65</f>
         <v>10.2</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>155</v>
@@ -2158,16 +2187,16 @@
         <f aca="false">E66*F66</f>
         <v>6.99</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="H66" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>44</v>
@@ -2182,11 +2211,11 @@
         <f aca="false">E67*F67</f>
         <v>0.36</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>42</v>
       </c>
@@ -2206,7 +2235,7 @@
         <f aca="false">E68*F68</f>
         <v>0.48</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="H68" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2216,7 +2245,7 @@
       </c>
       <c r="G71" s="1" t="n">
         <f aca="false">SUM(G3:G68)</f>
-        <v>202.68</v>
+        <v>208.19</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>158</v>
@@ -2227,7 +2256,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>160</v>
       </c>
@@ -2244,11 +2273,11 @@
         <f aca="false">E79*F79</f>
         <v>20.99</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="H79" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>163</v>
       </c>
@@ -2265,11 +2294,11 @@
         <f aca="false">E80*F80</f>
         <v>17.6</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H80" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>165</v>
       </c>
@@ -2283,11 +2312,11 @@
         <f aca="false">E81*F81</f>
         <v>89.95</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="H81" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>167</v>
       </c>
@@ -2304,11 +2333,11 @@
         <f aca="false">E82*F82</f>
         <v>15.95</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="H82" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>170</v>
       </c>
@@ -2322,11 +2351,11 @@
         <f aca="false">E83*F83</f>
         <v>4.99</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="H83" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>172</v>
       </c>
@@ -2343,11 +2372,11 @@
         <f aca="false">E84*F84</f>
         <v>3.2</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="H84" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>175</v>
       </c>
@@ -2361,11 +2390,11 @@
         <f aca="false">E85*F85</f>
         <v>7.99</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="H85" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>177</v>
       </c>
@@ -2379,11 +2408,11 @@
         <f aca="false">E86*F86</f>
         <v>9.95</v>
       </c>
-      <c r="H86" s="0" t="s">
+      <c r="H86" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>179</v>
       </c>
@@ -2400,7 +2429,7 @@
         <f aca="false">E87*F87</f>
         <v>3.99</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="H87" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2419,12 +2448,76 @@
       </c>
       <c r="G91" s="0" t="n">
         <f aca="false">SUM(G89,G71)</f>
-        <v>377.29</v>
+        <v>382.8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I61" r:id="rId1" display="https://www.reichelt.de/11-Watt-axial/11W-AXIAL-12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12"/>
+    <hyperlink ref="H3" r:id="rId1" display="https://www.reichelt.de/DC-Jacks/LUM-NEB-21R/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=116262&amp;GROUPID=3258&amp;artnr=LUM+NEB+21R"/>
+    <hyperlink ref="H4" r:id="rId2" display="https://www.reichelt.de/Power-Supplies-Fixed-Voltage/MW-GST60A12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=169684&amp;GROUPID=4950&amp;artnr=MW+GST60A12"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://github.com/amchagas/Flypi/tree/development/PCB"/>
+    <hyperlink ref="H6" r:id="rId4" display="https://github.com/amchagas/Flypi/tree/development/3D_print_files"/>
+    <hyperlink ref="H7" r:id="rId5" display="https://www.reichelt.de/Flachbandkabel/AWG-28-10F-3M/3/index.html?ACTION=3&amp;GROUPID=3328&amp;ARTICLE=47668&amp;OFFSET=16&amp;SID=12V0KkLawQATQAAHaiTrQ76eddfec27d96e4abaa567a74d209b7b&amp;LANGUAGE=EN"/>
+    <hyperlink ref="H10" r:id="rId6" display="https://www.reichelt.de/Elkos-radial-105-C-1000-5000h/RAD-FC-680-16/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=84685&amp;GROUPID=4000&amp;artnr=RAD+FC+680%2F16"/>
+    <hyperlink ref="H11" r:id="rId7" display="https://www.reichelt.de/Elkos-radial-85-C/RAD-220-63/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=15121&amp;GROUPID=3143&amp;artnr=RAD+220%2F63"/>
+    <hyperlink ref="H12" r:id="rId8" display="https://www.reichelt.de/SB-SKE-4F-Dioden/SB-330/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=16039&amp;GROUPID=2991&amp;artnr=SB+330"/>
+    <hyperlink ref="H13" r:id="rId9" display="https://www.reichelt.de/Fest-Induktivitaeten-radial/L-09HCP-33-/3/index.html?ACTION=3&amp;GROUPID=3180&amp;ARTICLE=138657&amp;OFFSET=16&amp;SID=11V0QcSawQATMAAEmsvA88c90efb72bf42bc26df1c2bd134cc523&amp;LANGUAGE=EN"/>
+    <hyperlink ref="H14" r:id="rId10" display="https://www.reichelt.de/Screw-terminals/AKL-059-02/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=36598&amp;GROUPID=7246&amp;artnr=AKL+059-02"/>
+    <hyperlink ref="H15" r:id="rId11" display="https://www.reichelt.de/ICs-LM-2000-LM-25576/LM-2596-T5-0/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=109365&amp;GROUPID=5466&amp;artnr=LM+2596+T5%2C0"/>
+    <hyperlink ref="H16" r:id="rId12" display="http://www.reichelt.de/RASPBERRY-PI-3/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=164977&amp;artnr=RASPBERRY+PI+3&amp;SEARCH=raspberry+pi3"/>
+    <hyperlink ref="H17" r:id="rId13" display="http://www.reichelt.de/A-V-Cables-HDMI-mini-micro-HDMI-/AK-HDMI-0-50G-ET/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=141813&amp;GROUPID=3615&amp;artnr=AK+HDMI+0%2C50G+ET"/>
+    <hyperlink ref="H18" r:id="rId14" display="http://www.reichelt.de/USB-Cables/AK-676-AB/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=74221&amp;GROUPID=6099&amp;artnr=AK+676-AB"/>
+    <hyperlink ref="H19" r:id="rId15" display="http://www.screwsandmore.de/en/50-pcs-DIN-912-A2-M3X6.html"/>
+    <hyperlink ref="H22" r:id="rId16" display="https://www.reichelt.de/ARDUINO-NANO/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=142943&amp;artnr=ARDUINO+NANO&amp;SEARCH=arduino+nano"/>
+    <hyperlink ref="H23" r:id="rId17" display="https://www.reichelt.de/Buchsenleisten/BL-1X20G8-2-54/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=51827&amp;GROUPID=3221&amp;artnr=BL+1X20G8+2%2C54"/>
+    <hyperlink ref="H24" r:id="rId18" display="http://www.reichelt.de/USB-Cables/DELOCK-83178/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=163118&amp;GROUPID=6099&amp;artnr=DELOCK+83178"/>
+    <hyperlink ref="H27" r:id="rId19" display="https://www.reichelt.de/L-298/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=9667&amp;artnr=L+298&amp;SEARCH=l298n"/>
+    <hyperlink ref="H28" r:id="rId20" display="https://www.conrad.de/de/axialluefter-5-vdc-1189-mh-l-x-b-x-h-40-x-40-x-10-mm-sunon-mb40100v2-0000-a99-183719.html"/>
+    <hyperlink ref="H29" r:id="rId21" display="https://www.reichelt.de/Elkos-radial-85-C/RAD-0-1-100/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=15085&amp;GROUPID=3143&amp;artnr=RAD+0%2C1%2F100"/>
+    <hyperlink ref="H30" r:id="rId22" display="https://www.reichelt.de/LED-LL-5-8000RGB/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=156358&amp;artnr=LED+LL+5-8000RGB&amp;SEARCH=rgb+led"/>
+    <hyperlink ref="H31" r:id="rId23" display="https://www.reichelt.de/1-4W-5-100-Ohm-910-Ohm/1-4W-220/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=1382&amp;GROUPID=3064&amp;artnr=1%2F4W+220"/>
+    <hyperlink ref="H32" r:id="rId24" display="https://www.reichelt.de/17-Watt-axial/17W-AXIAL-1-0/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=1629&amp;GROUPID=3122&amp;artnr=17W+AXIAL+1%2C0"/>
+    <hyperlink ref="H33" r:id="rId25" display="https://www.reichelt.de/1-4W-5-100-Ohm-910-Ohm/1-4W-270/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=1390&amp;GROUPID=3064&amp;artnr=1%2F4W+270"/>
+    <hyperlink ref="H34" r:id="rId26" display="https://www.reichelt.de/1-4W-5-1-0-k-Ohm-9-1-k-Ohm/1-4W-1-0K/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1315&amp;GROUPID=3065&amp;artnr=1%2F4W+1%2C0K"/>
+    <hyperlink ref="H35" r:id="rId27" display="https://www.reichelt.de/BC-Transistors/BC-368/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=4992&amp;GROUPID=7206&amp;artnr=BC+368"/>
+    <hyperlink ref="H36" r:id="rId28" display="https://www.reichelt.de/TEC1-127-05/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=149024&amp;artnr=TEC1+127+05&amp;SEARCH=peltier"/>
+    <hyperlink ref="H37" r:id="rId29" display="https://www.reichelt.de/Screw-terminals/AKL-059-02/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=36598&amp;GROUPID=7246&amp;artnr=AKL+059-02"/>
+    <hyperlink ref="H38" r:id="rId30" display="https://www.reichelt.de/Heat-Sinks-PCB-mounting/V-ICK-PGA36X36/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=100978&amp;GROUPID=4621&amp;artnr=V+ICK+PGA36X36"/>
+    <hyperlink ref="H39" r:id="rId31" display="https://www.reichelt.de/AD-22100-KT/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=39279&amp;artnr=AD+22100+KT&amp;SEARCH=ad22100kt"/>
+    <hyperlink ref="H42" r:id="rId32" display="https://www.reichelt.de/Elkos-radial-105-C-1000-5000h/RAD-FC-680-16/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=84685&amp;GROUPID=4000&amp;artnr=RAD+FC+680%2F16"/>
+    <hyperlink ref="H43" r:id="rId33" display="https://www.reichelt.de/Elkos-radial-85-C/RAD-220-63/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=15121&amp;GROUPID=3143&amp;artnr=RAD+220%2F63"/>
+    <hyperlink ref="H44" r:id="rId34" display="https://www.reichelt.de/SB-SKE-4F-Dioden/SB-330/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=16039&amp;GROUPID=2991&amp;artnr=SB+330"/>
+    <hyperlink ref="H45" r:id="rId35" display="https://www.reichelt.de/Fest-Induktivitaeten-radial/L-09HCP-33-/3/index.html?ACTION=3&amp;GROUPID=3180&amp;ARTICLE=138657&amp;OFFSET=16&amp;SID=11V0QcSawQATMAAEmsvA88c90efb72bf42bc26df1c2bd134cc523&amp;LANGUAGE=EN"/>
+    <hyperlink ref="H46" r:id="rId36" display="https://www.reichelt.de/ICs-LM-2000-LM-25576/LM-2596-T5-0/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=109365&amp;GROUPID=5466&amp;artnr=LM+2596+T5%2C0"/>
+    <hyperlink ref="H47" r:id="rId37" display="https://www.reichelt.de/Screw-terminals/AKL-059-03/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=36599&amp;GROUPID=7246&amp;artnr=AKL+059-03"/>
+    <hyperlink ref="H48" r:id="rId38" display="https://www.reichelt.de/Screw-terminals/AKL-059-02/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=36598&amp;GROUPID=7246&amp;artnr=AKL+059-02"/>
+    <hyperlink ref="H49" r:id="rId39" display="https://www.adafruit.com/product/1643"/>
+    <hyperlink ref="H50" r:id="rId40" display="https://www.adafruit.com/products/1052"/>
+    <hyperlink ref="H53" r:id="rId41" display="https://www.reichelt.de/Elkos-radial-105-C-1000-5000h/RAD-FC-680-16/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=84685&amp;GROUPID=4000&amp;artnr=RAD+FC+680%2F16"/>
+    <hyperlink ref="H54" r:id="rId42" display="https://www.reichelt.de/Elkos-radial-85-C/RAD-220-63/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=15121&amp;GROUPID=3143&amp;artnr=RAD+220%2F63"/>
+    <hyperlink ref="H55" r:id="rId43" display="https://www.reichelt.de/SB-SKE-4F-Dioden/SB-330/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=16039&amp;GROUPID=2991&amp;artnr=SB+330"/>
+    <hyperlink ref="H56" r:id="rId44" display="https://www.reichelt.de/Fest-Induktivitaeten-radial/L-09HCP-33-/3/index.html?ACTION=3&amp;GROUPID=3180&amp;ARTICLE=138657&amp;OFFSET=16&amp;SID=11V0QcSawQATMAAEmsvA88c90efb72bf42bc26df1c2bd134cc523&amp;LANGUAGE=EN"/>
+    <hyperlink ref="H57" r:id="rId45" display="https://www.reichelt.de/ICs-LM-2000-LM-25576/LM-2596-T5-0/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=109365&amp;GROUPID=5466&amp;artnr=LM+2596+T5%2C0"/>
+    <hyperlink ref="H58" r:id="rId46" display="https://www.reichelt.de/1-4W-5-100-Ohm-910-Ohm/1-4W-270/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=1390&amp;GROUPID=3064&amp;artnr=1%2F4W+270"/>
+    <hyperlink ref="H59" r:id="rId47" display="https://www.reichelt.de/BC-Transistors/BC-368/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=4992&amp;GROUPID=7206&amp;artnr=BC+368"/>
+    <hyperlink ref="H61" r:id="rId48" display="https://www.reichelt.de/11-Watt-axial/11W-AXIAL-12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12 ?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12"/>
+    <hyperlink ref="I61" r:id="rId49" display="https://www.reichelt.de/11-Watt-axial/11W-AXIAL-12/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=1506&amp;GROUPID=3120&amp;artnr=11W+AXIAL+12"/>
+    <hyperlink ref="H62" r:id="rId50" display="http://www.roithner-laser.com/led_highoptic.html"/>
+    <hyperlink ref="H63" r:id="rId51" display="https://www.reichelt.de/Heat-Sinks-PCB-mounting/V-ICK-PGA36X36/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=100978&amp;GROUPID=4621&amp;artnr=V+ICK+PGA36X36"/>
+    <hyperlink ref="H64" r:id="rId52" display="https://www.rosco.com/uk/german/filters/roscolux.cfm"/>
+    <hyperlink ref="H65" r:id="rId53" display="https://www.rosco.com/uk/german/filters/roscolux.cfm"/>
+    <hyperlink ref="H66" r:id="rId54" display="https://www.conrad.de/de/modelcraft-mini-servo-y-3009-analog-servo-getriebe-material-kunststoff-stecksystem-jr-209089.html"/>
+    <hyperlink ref="H67" r:id="rId55" display="https://www.reichelt.de/Screw-terminals/AKL-059-03/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=36599&amp;GROUPID=7246&amp;artnr=AKL+059-03"/>
+    <hyperlink ref="H68" r:id="rId56" display="https://www.reichelt.de/Screw-terminals/AKL-059-02/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=36598&amp;GROUPID=7246&amp;artnr=AKL+059-02"/>
+    <hyperlink ref="H79" r:id="rId57" display="https://www.conrad.de/de/manhattan-hdmi-auf-vga-konverter-1284618.html"/>
+    <hyperlink ref="H80" r:id="rId58" display="https://www.rosco.com/uk/german/filters/roscolux.cfm"/>
+    <hyperlink ref="H81" r:id="rId59" display="https://www.reichelt.de/HANNS-G-HE225DPB/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=130197&amp;artnr=HANNS-G+HE225DPB&amp;SEARCH=pc+monitore"/>
+    <hyperlink ref="H82" r:id="rId60" display="http://www.reichelt.de/Keyboard-Mouse-Sets/CHERRY-JD-0800DE/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=154150&amp;GROUPID=6267&amp;artnr=CHERRY+JD-0800DE"/>
+    <hyperlink ref="H83" r:id="rId61" display="https://www.reichelt.de/KOLBEN-FP-30/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=89497&amp;artnr=KOLBEN+FP+30&amp;SEARCH=soldering+iron"/>
+    <hyperlink ref="H84" r:id="rId62" display="https://www.reichelt.de/Solder/LZ-FE-1-0-100/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=30439&amp;GROUPID=557&amp;artnr=LZ+FE+1%2C0+100"/>
+    <hyperlink ref="H85" r:id="rId63" display="https://www.reichelt.de/TG-WLPA-015/3/index.html?&amp;ACTION=3&amp;LA=446&amp;ARTICLE=156447&amp;artnr=TG-WLPA-015&amp;SEARCH=thermal+paste"/>
+    <hyperlink ref="H86" r:id="rId64" display="https://www.reichelt.de/Holders-Vices/HALTER-ZD-10MB/3/index.html?&amp;ACTION=3&amp;LA=5700&amp;ARTICLE=145605&amp;GROUPID=4143&amp;artnr=HALTER+ZD-10MB"/>
+    <hyperlink ref="H87" r:id="rId65" display="https://www.reichelt.de/Standard-soft-finish/WIHA-302-3-5/3/index.html?&amp;ACTION=3&amp;LA=2&amp;ARTICLE=28685&amp;GROUPID=561&amp;artnr=WIHA+302-3%2C5"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
